--- a/U233_MET_FAST_002/U233_MET_FAST_002.xlsx
+++ b/U233_MET_FAST_002/U233_MET_FAST_002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\ML_neutronics\U233_MET_FAST_002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34031E85-5652-4F1B-A4D5-B198CAA0476C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDD533D-50EA-487E-A13B-AE61C7E2D138}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -672,84 +672,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1194,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="65" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1210,47 +1210,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54"/>
-      <c r="G1" s="39" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="G1" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="41"/>
+      <c r="H1" s="51"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="60" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="G2" s="48" t="s">
+      <c r="E2" s="36"/>
+      <c r="G2" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="49"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="62" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="63"/>
+      <c r="E3" s="38"/>
       <c r="G3" s="17" t="s">
         <v>18</v>
       </c>
@@ -1262,14 +1262,14 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="44" t="s">
+      <c r="C4" s="40"/>
+      <c r="D4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="45"/>
+      <c r="E4" s="40"/>
       <c r="G4" s="22" t="s">
         <v>9</v>
       </c>
@@ -1301,7 +1301,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="41" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4">
@@ -1310,10 +1310,10 @@
       <c r="C6" s="5">
         <v>2.1199999999999999E-3</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="42">
         <v>0.99690000000000001</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="44">
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="G6" s="19" t="s">
@@ -1324,15 +1324,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="55"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="6">
         <v>0.99361999999999995</v>
       </c>
       <c r="C7" s="7">
         <v>2.0699999999999998E-3</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="58"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="44"/>
       <c r="G7" s="20" t="s">
         <v>23</v>
       </c>
@@ -1341,19 +1341,19 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="55"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="6">
         <v>3.64533E-3</v>
       </c>
       <c r="C8" s="7">
         <v>3.567E-2</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="58"/>
-      <c r="G8" s="48" t="s">
+      <c r="D8" s="42"/>
+      <c r="E8" s="44"/>
+      <c r="G8" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="49"/>
+      <c r="H8" s="53"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="8" t="s">
@@ -1365,8 +1365,8 @@
       <c r="C9" s="7">
         <v>1.41E-3</v>
       </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="58"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="44"/>
       <c r="G9" s="17" t="s">
         <v>18</v>
       </c>
@@ -1384,8 +1384,8 @@
       <c r="C10" s="7">
         <v>1.57E-3</v>
       </c>
-      <c r="D10" s="56"/>
-      <c r="E10" s="58"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="44"/>
       <c r="G10" s="22" t="s">
         <v>9</v>
       </c>
@@ -1403,8 +1403,8 @@
       <c r="C11" s="7">
         <v>1.41E-3</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="59"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="45"/>
       <c r="G11" s="19" t="s">
         <v>22</v>
       </c>
@@ -1430,7 +1430,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.7" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="46" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="10">
@@ -1441,7 +1441,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A14" s="50"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="10">
         <v>1</v>
       </c>
@@ -1450,7 +1450,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="51"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="13">
         <v>1</v>
       </c>
@@ -1460,106 +1460,106 @@
     </row>
     <row r="16" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="17" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:8" ht="14.7" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="42" t="s">
+      <c r="C18" s="49"/>
+      <c r="D18" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="43"/>
+      <c r="E18" s="49"/>
     </row>
     <row r="19" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="44" t="s">
+      <c r="C19" s="40"/>
+      <c r="D19" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="45"/>
+      <c r="E19" s="40"/>
     </row>
     <row r="20" spans="1:8" ht="14.7" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A20" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="46" t="s">
+      <c r="C20" s="62"/>
+      <c r="D20" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="47"/>
+      <c r="E20" s="62"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A21" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="37">
-        <v>5000</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="37">
+      <c r="B21" s="59">
+        <v>100000</v>
+      </c>
+      <c r="C21" s="60"/>
+      <c r="D21" s="59">
         <v>1500</v>
       </c>
-      <c r="E21" s="38"/>
+      <c r="E21" s="60"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A22" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="59">
         <v>100</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="37">
+      <c r="C22" s="60"/>
+      <c r="D22" s="59">
         <v>305</v>
       </c>
-      <c r="E22" s="38"/>
+      <c r="E22" s="60"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A23" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="37">
-        <v>20</v>
-      </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="37">
+      <c r="B23" s="59">
+        <v>50</v>
+      </c>
+      <c r="C23" s="60"/>
+      <c r="D23" s="59">
         <v>5</v>
       </c>
-      <c r="E23" s="38"/>
+      <c r="E23" s="60"/>
     </row>
     <row r="24" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="35">
+      <c r="B24" s="57">
         <f>B21*(B22-B23)</f>
-        <v>400000</v>
-      </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="35">
+        <v>5000000</v>
+      </c>
+      <c r="C24" s="58"/>
+      <c r="D24" s="57">
         <f>D21*(D22-D23)</f>
         <v>450000</v>
       </c>
-      <c r="E24" s="36"/>
+      <c r="E24" s="58"/>
     </row>
     <row r="25" spans="1:8" ht="14.7" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A25" s="34"/>
@@ -1604,47 +1604,47 @@
       <c r="E30" s="34"/>
     </row>
     <row r="31" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="54"/>
-      <c r="G31" s="39" t="s">
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="56"/>
+      <c r="G31" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="H31" s="41"/>
+      <c r="H31" s="51"/>
     </row>
     <row r="32" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="60" t="s">
+      <c r="C32" s="36"/>
+      <c r="D32" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="61"/>
-      <c r="G32" s="48" t="s">
+      <c r="E32" s="36"/>
+      <c r="G32" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="49"/>
+      <c r="H32" s="53"/>
     </row>
     <row r="33" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="62" t="s">
+      <c r="C33" s="38"/>
+      <c r="D33" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="63"/>
+      <c r="E33" s="38"/>
       <c r="G33" s="17" t="s">
         <v>18</v>
       </c>
@@ -1656,14 +1656,14 @@
       <c r="A34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="44" t="s">
+      <c r="C34" s="40"/>
+      <c r="D34" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="45"/>
+      <c r="E34" s="40"/>
       <c r="G34" s="22" t="s">
         <v>9</v>
       </c>
@@ -1695,7 +1695,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="41" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="4">
@@ -1704,10 +1704,10 @@
       <c r="C36" s="5">
         <v>2.0799999999999998E-3</v>
       </c>
-      <c r="D36" s="56">
+      <c r="D36" s="42">
         <v>1.0006999999999999</v>
       </c>
-      <c r="E36" s="58">
+      <c r="E36" s="44">
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="G36" s="19" t="s">
@@ -1718,15 +1718,15 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="55"/>
+      <c r="A37" s="41"/>
       <c r="B37" s="6">
         <v>0.99727600000000005</v>
       </c>
       <c r="C37" s="7">
         <v>1.98E-3</v>
       </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="58"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="44"/>
       <c r="G37" s="20" t="s">
         <v>23</v>
       </c>
@@ -1735,19 +1735,19 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="55"/>
+      <c r="A38" s="41"/>
       <c r="B38" s="6">
         <v>3.86536E-3</v>
       </c>
       <c r="C38" s="7">
         <v>3.5220000000000001E-2</v>
       </c>
-      <c r="D38" s="56"/>
-      <c r="E38" s="58"/>
-      <c r="G38" s="48" t="s">
+      <c r="D38" s="42"/>
+      <c r="E38" s="44"/>
+      <c r="G38" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="H38" s="49"/>
+      <c r="H38" s="53"/>
     </row>
     <row r="39" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="8" t="s">
@@ -1759,8 +1759,8 @@
       <c r="C39" s="7">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="D39" s="56"/>
-      <c r="E39" s="58"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="44"/>
       <c r="G39" s="17" t="s">
         <v>18</v>
       </c>
@@ -1778,8 +1778,8 @@
       <c r="C40" s="7">
         <v>1.3799999999999999E-3</v>
       </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="58"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="44"/>
       <c r="G40" s="22" t="s">
         <v>9</v>
       </c>
@@ -1797,8 +1797,8 @@
       <c r="C41" s="7">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="D41" s="57"/>
-      <c r="E41" s="59"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="45"/>
       <c r="G41" s="19" t="s">
         <v>22</v>
       </c>
@@ -1824,7 +1824,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.7" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="50" t="s">
+      <c r="A43" s="46" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="10">
@@ -1835,7 +1835,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A44" s="50"/>
+      <c r="A44" s="46"/>
       <c r="B44" s="10">
         <v>1</v>
       </c>
@@ -1844,7 +1844,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="51"/>
+      <c r="A45" s="47"/>
       <c r="B45" s="13">
         <v>1</v>
       </c>
@@ -1858,106 +1858,106 @@
       <c r="C46" s="29"/>
     </row>
     <row r="47" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="39" t="s">
+      <c r="A47" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="41"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="51"/>
     </row>
     <row r="48" spans="1:8" ht="14.7" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="42" t="s">
+      <c r="C48" s="49"/>
+      <c r="D48" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="43"/>
+      <c r="E48" s="49"/>
     </row>
     <row r="49" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="45"/>
-      <c r="D49" s="44" t="s">
+      <c r="C49" s="40"/>
+      <c r="D49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="40"/>
     </row>
     <row r="50" spans="1:5" ht="14.7" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A50" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="46" t="s">
+      <c r="C50" s="62"/>
+      <c r="D50" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="47"/>
+      <c r="E50" s="62"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A51" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="37">
-        <v>5000</v>
-      </c>
-      <c r="C51" s="38"/>
-      <c r="D51" s="37">
+      <c r="B51" s="59">
+        <v>10000</v>
+      </c>
+      <c r="C51" s="60"/>
+      <c r="D51" s="59">
         <v>1500</v>
       </c>
-      <c r="E51" s="38"/>
+      <c r="E51" s="60"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A52" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="37">
+      <c r="B52" s="59">
         <v>100</v>
       </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="37">
+      <c r="C52" s="60"/>
+      <c r="D52" s="59">
         <v>305</v>
       </c>
-      <c r="E52" s="38"/>
+      <c r="E52" s="60"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A53" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="37">
-        <v>20</v>
-      </c>
-      <c r="C53" s="38"/>
-      <c r="D53" s="37">
+      <c r="B53" s="59">
+        <v>50</v>
+      </c>
+      <c r="C53" s="60"/>
+      <c r="D53" s="59">
         <v>5</v>
       </c>
-      <c r="E53" s="38"/>
+      <c r="E53" s="60"/>
     </row>
     <row r="54" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B54" s="35">
+      <c r="B54" s="57">
         <f>B51*(B52-B53)</f>
-        <v>400000</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="35">
+        <v>500000</v>
+      </c>
+      <c r="C54" s="58"/>
+      <c r="D54" s="57">
         <f>D51*(D52-D53)</f>
         <v>450000</v>
       </c>
-      <c r="E54" s="36"/>
+      <c r="E54" s="58"/>
     </row>
     <row r="55" spans="1:5" ht="14.7" thickTop="1" x14ac:dyDescent="0.5"/>
     <row r="84" spans="1:5" x14ac:dyDescent="0.5">
@@ -1969,38 +1969,16 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="E6:E11"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="A17:E17"/>
@@ -2017,16 +1995,38 @@
     <mergeCell ref="A47:E47"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
